--- a/dataset sekunder/dataset_sekunder.xlsx
+++ b/dataset sekunder/dataset_sekunder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5010c15d569d2076/04. University of Jember/01. Physics Academics/TUGAS AKHIR/Data MERRA-2 Time Series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5010c15d569d2076/04. University of Jember/01. Physics Academics/TUGAS AKHIR/04. Evapotranspiration-Analysis/dataset sekunder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{01E27CF3-0748-47B1-AEED-D9CE3D5F38A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C18B69F6-125A-4D51-8CD7-468A14B97998}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{01E27CF3-0748-47B1-AEED-D9CE3D5F38A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{509A321B-9985-40C0-B8C6-76D77FB5CEA7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="866" xr2:uid="{8E10AA64-040F-43D2-8A09-EDDE4C03F492}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="866" firstSheet="2" activeTab="14" xr2:uid="{8E10AA64-040F-43D2-8A09-EDDE4C03F492}"/>
   </bookViews>
   <sheets>
     <sheet name="day 1" sheetId="2" r:id="rId1"/>
@@ -53,13 +53,13 @@
     <t>kelembapan_relatif</t>
   </si>
   <si>
-    <t>kelebapan_spesifik</t>
-  </si>
-  <si>
     <t>curah_hujan</t>
   </si>
   <si>
     <t>kecepatan_angin</t>
+  </si>
+  <si>
+    <t>kelembapan_spesifik</t>
   </si>
 </sst>
 </file>
@@ -603,6 +603,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -922,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CE8CF1-7A94-4584-89FB-4F07FB04544B}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,16 +943,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1145,7 +1149,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,16 +1165,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1367,7 +1371,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,16 +1387,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,7 +1593,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1827,16 +1831,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2049,16 +2053,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2254,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E647E41-F596-48DA-BF34-1C023E7BEDCC}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,16 +2275,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2493,16 +2497,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2715,16 +2719,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2937,16 +2941,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3159,16 +3163,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3365,7 +3369,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,16 +3385,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3603,16 +3607,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3809,7 +3813,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3825,16 +3829,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4031,7 +4035,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4047,16 +4051,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4253,7 +4257,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4269,16 +4273,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4475,7 +4479,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4491,16 +4495,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4697,7 +4701,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4713,16 +4717,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4919,7 +4923,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4935,16 +4939,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5141,7 +5145,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5157,16 +5161,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
